--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_5_8.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_5_8.xlsx
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_21</t>
+          <t>model_5_8_23</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04082707791118545</v>
+        <v>0.7647329332432279</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.400999386774211</v>
+        <v>0.7566646430420267</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.550908647442431</v>
+        <v>0.2480315354003723</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.828562928171523</v>
+        <v>0.5353912794703288</v>
       </c>
       <c r="F2" t="n">
-        <v>1.151888847351074</v>
+        <v>0.2603712975978851</v>
       </c>
       <c r="G2" t="n">
-        <v>4.152790546417236</v>
+        <v>0.3901068568229675</v>
       </c>
       <c r="H2" t="n">
-        <v>3.306599140167236</v>
+        <v>1.189631700515747</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75458288192749</v>
+        <v>0.7663536071777344</v>
       </c>
     </row>
     <row r="3">
@@ -513,214 +513,214 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.007678877832218101</v>
+        <v>0.7648653049872381</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.091010638843864</v>
+        <v>0.7564162294686795</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.420590660954478</v>
+        <v>0.2530414186145908</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.664780958335581</v>
+        <v>0.537524055422022</v>
       </c>
       <c r="F3" t="n">
-        <v>1.098207116127014</v>
+        <v>0.2602248191833496</v>
       </c>
       <c r="G3" t="n">
-        <v>3.999556303024292</v>
+        <v>0.3905050754547119</v>
       </c>
       <c r="H3" t="n">
-        <v>3.137675285339355</v>
+        <v>1.181705951690674</v>
       </c>
       <c r="I3" t="n">
-        <v>3.593965530395508</v>
+        <v>0.762835681438446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_19</t>
+          <t>model_5_8_24</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02007066218287257</v>
+        <v>0.7648997684318564</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.635292246794192</v>
+        <v>0.7566782702451125</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.502490790228226</v>
+        <v>0.2451880527088666</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.594111661314145</v>
+        <v>0.5341144665264681</v>
       </c>
       <c r="F4" t="n">
-        <v>1.084493041038513</v>
+        <v>0.2601867020130157</v>
       </c>
       <c r="G4" t="n">
-        <v>3.774284839630127</v>
+        <v>0.390084981918335</v>
       </c>
       <c r="H4" t="n">
-        <v>3.243837833404541</v>
+        <v>1.194130182266235</v>
       </c>
       <c r="I4" t="n">
-        <v>3.524661779403687</v>
+        <v>0.768459677696228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_20</t>
+          <t>model_5_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02149039709311029</v>
+        <v>0.7680010020613707</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.570646009281844</v>
+        <v>0.7582368705345263</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.521868214103196</v>
+        <v>0.2678336349241986</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.588914492890698</v>
+        <v>0.5451376049230083</v>
       </c>
       <c r="F5" t="n">
-        <v>1.082921743392944</v>
+        <v>0.2567545473575592</v>
       </c>
       <c r="G5" t="n">
-        <v>3.742329120635986</v>
+        <v>0.3875862956047058</v>
       </c>
       <c r="H5" t="n">
-        <v>3.268955707550049</v>
+        <v>1.158304333686829</v>
       </c>
       <c r="I5" t="n">
-        <v>3.519564867019653</v>
+        <v>0.7502774000167847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_18</t>
+          <t>model_5_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02358361315948809</v>
+        <v>0.7681199805223183</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.590524816444745</v>
+        <v>0.7582318048163502</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.49887529678115</v>
+        <v>0.2709913962459282</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.579917606832181</v>
+        <v>0.5465602327873382</v>
       </c>
       <c r="F6" t="n">
-        <v>1.080605268478394</v>
+        <v>0.256622850894928</v>
       </c>
       <c r="G6" t="n">
-        <v>3.752155780792236</v>
+        <v>0.3875944316387177</v>
       </c>
       <c r="H6" t="n">
-        <v>3.239151000976562</v>
+        <v>1.153308629989624</v>
       </c>
       <c r="I6" t="n">
-        <v>3.510741949081421</v>
+        <v>0.7479308843612671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_24</t>
+          <t>model_5_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02523168879692295</v>
+        <v>0.7719244605634186</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.093815131663385</v>
+        <v>0.7588497325191847</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.321320579921434</v>
+        <v>0.3022836546137829</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.603782224629946</v>
+        <v>0.5610022997971802</v>
       </c>
       <c r="F7" t="n">
-        <v>1.078781247138977</v>
+        <v>0.2524124085903168</v>
       </c>
       <c r="G7" t="n">
-        <v>4.000942707061768</v>
+        <v>0.3866037726402283</v>
       </c>
       <c r="H7" t="n">
-        <v>3.008997201919556</v>
+        <v>1.103803515434265</v>
       </c>
       <c r="I7" t="n">
-        <v>3.534145593643188</v>
+        <v>0.7241092324256897</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_23</t>
+          <t>model_5_8_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03140531599880192</v>
+        <v>0.772156122484139</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.857759916079938</v>
+        <v>0.7590279455180204</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.383128361258092</v>
+        <v>0.2985597125523173</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.579234001801608</v>
+        <v>0.5594130139037725</v>
       </c>
       <c r="F8" t="n">
-        <v>1.071948885917664</v>
+        <v>0.2521560192108154</v>
       </c>
       <c r="G8" t="n">
-        <v>3.884255647659302</v>
+        <v>0.3863180875778198</v>
       </c>
       <c r="H8" t="n">
-        <v>3.089115142822266</v>
+        <v>1.109694957733154</v>
       </c>
       <c r="I8" t="n">
-        <v>3.510071516036987</v>
+        <v>0.7267307043075562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_17</t>
+          <t>model_5_8_14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07839472415221727</v>
+        <v>0.7758362653938722</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.911938197252511</v>
+        <v>0.7531671728775778</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.451656096913681</v>
+        <v>0.3521614956610498</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.369461524001679</v>
+        <v>0.5805905253591408</v>
       </c>
       <c r="F9" t="n">
-        <v>1.019945502281189</v>
+        <v>0.2480832189321518</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4167160987854</v>
+        <v>0.3957138955593109</v>
       </c>
       <c r="H9" t="n">
-        <v>3.177943706512451</v>
+        <v>1.024895668029785</v>
       </c>
       <c r="I9" t="n">
-        <v>3.304352521896362</v>
+        <v>0.6917992234230042</v>
       </c>
     </row>
     <row r="10">
@@ -730,28 +730,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1524591047868891</v>
+        <v>0.7760277611904829</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.055337778894676</v>
+        <v>0.755797648178276</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.359703581890102</v>
+        <v>0.3388817115335638</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.083677193143649</v>
+        <v>0.5759504866974523</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9379780888557434</v>
+        <v>0.2478712797164917</v>
       </c>
       <c r="G10" t="n">
-        <v>2.993280410766602</v>
+        <v>0.3914967775344849</v>
       </c>
       <c r="H10" t="n">
-        <v>3.058750867843628</v>
+        <v>1.045904636383057</v>
       </c>
       <c r="I10" t="n">
-        <v>3.024090528488159</v>
+        <v>0.699452817440033</v>
       </c>
     </row>
     <row r="11">
@@ -761,493 +761,493 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1621894715466584</v>
+        <v>0.7760385592692354</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.974356988223407</v>
+        <v>0.7546941321708422</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.331433403682532</v>
+        <v>0.3455113185622848</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.044481890370557</v>
+        <v>0.5783747649427132</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9272093772888184</v>
+        <v>0.2478593289852142</v>
       </c>
       <c r="G11" t="n">
-        <v>2.953249931335449</v>
+        <v>0.3932659029960632</v>
       </c>
       <c r="H11" t="n">
-        <v>3.022105693817139</v>
+        <v>1.0354163646698</v>
       </c>
       <c r="I11" t="n">
-        <v>2.985652685165405</v>
+        <v>0.6954541206359863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_14</t>
+          <t>model_5_8_17</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2104482729357372</v>
+        <v>0.7762914822106416</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.943094419278452</v>
+        <v>0.7565585813301661</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.413566139494709</v>
+        <v>0.334675833873798</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.820371413532007</v>
+        <v>0.5744432854639906</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8738011717796326</v>
+        <v>0.2475794106721878</v>
       </c>
       <c r="G12" t="n">
-        <v>2.443475008010864</v>
+        <v>0.3902768790721893</v>
       </c>
       <c r="H12" t="n">
-        <v>3.128569841384888</v>
+        <v>1.052558422088623</v>
       </c>
       <c r="I12" t="n">
-        <v>2.765872716903687</v>
+        <v>0.7019389271736145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_13</t>
+          <t>model_5_8_0</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2733485932479495</v>
+        <v>0.7807764127470322</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.988852619464039</v>
+        <v>0.6934840448288333</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.408690338617223</v>
+        <v>0.5672646570924258</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.562693107821805</v>
+        <v>0.6469668427976798</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8041890263557434</v>
+        <v>0.2426159232854843</v>
       </c>
       <c r="G13" t="n">
-        <v>1.971773624420166</v>
+        <v>0.4913958311080933</v>
       </c>
       <c r="H13" t="n">
-        <v>3.122249603271484</v>
+        <v>0.6845974326133728</v>
       </c>
       <c r="I13" t="n">
-        <v>2.513173580169678</v>
+        <v>0.5823140740394592</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_12</t>
+          <t>model_5_8_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.377610630360282</v>
+        <v>0.7813261138547781</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.549267492163501</v>
+        <v>0.6789378661338734</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.346492521791421</v>
+        <v>0.5670294511732765</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.139844132782901</v>
+        <v>0.6393760868508569</v>
       </c>
       <c r="F14" t="n">
-        <v>0.688801646232605</v>
+        <v>0.2420075684785843</v>
       </c>
       <c r="G14" t="n">
-        <v>1.260156393051147</v>
+        <v>0.5147157311439514</v>
       </c>
       <c r="H14" t="n">
-        <v>3.041626214981079</v>
+        <v>0.6849695444107056</v>
       </c>
       <c r="I14" t="n">
-        <v>2.098495483398438</v>
+        <v>0.5948348045349121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_1</t>
+          <t>model_5_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.388985602921663</v>
+        <v>0.7816654233365891</v>
       </c>
       <c r="C15" t="n">
-        <v>0.894604683059412</v>
+        <v>0.7442782025610442</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.084493744479209</v>
+        <v>0.4010557431471978</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3247135800761072</v>
+        <v>0.5980847463230582</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6762128472328186</v>
+        <v>0.2416320592164993</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05209911614656448</v>
+        <v>0.409964382648468</v>
       </c>
       <c r="H15" t="n">
-        <v>2.702011585235596</v>
+        <v>0.9475437998771667</v>
       </c>
       <c r="I15" t="n">
-        <v>1.299115777015686</v>
+        <v>0.6629432439804077</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_2</t>
+          <t>model_5_8_12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3932063532975927</v>
+        <v>0.7818410857513254</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8866550549536811</v>
+        <v>0.7417840534979725</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.106080999712578</v>
+        <v>0.4084717952419112</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3402651582632767</v>
+        <v>0.6001489238254268</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6715417504310608</v>
+        <v>0.2414376437664032</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05602878332138062</v>
+        <v>0.4139629006385803</v>
       </c>
       <c r="H16" t="n">
-        <v>2.729994297027588</v>
+        <v>0.9358114004135132</v>
       </c>
       <c r="I16" t="n">
-        <v>1.314366936683655</v>
+        <v>0.6595384478569031</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_9</t>
+          <t>model_5_8_2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3970215265604436</v>
+        <v>0.7832452998931489</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3113639398309502</v>
+        <v>0.6794030229032146</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.56816218097603</v>
+        <v>0.5656115380652724</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7812042456134645</v>
+        <v>0.6389757465364482</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6673194766044617</v>
+        <v>0.2398835718631744</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3404072523117065</v>
+        <v>0.5139700174331665</v>
       </c>
       <c r="H17" t="n">
-        <v>3.328963994979858</v>
+        <v>0.6872127056121826</v>
       </c>
       <c r="I17" t="n">
-        <v>1.746785521507263</v>
+        <v>0.5954951047897339</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_3</t>
+          <t>model_5_8_11</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4016253899325237</v>
+        <v>0.7833395599614169</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8533220878848747</v>
+        <v>0.7369423634091525</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.150610632466433</v>
+        <v>0.4260915482700741</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3768586826554556</v>
+        <v>0.605609772589536</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6622243523597717</v>
+        <v>0.2397792637348175</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07250596582889557</v>
+        <v>0.421724945306778</v>
       </c>
       <c r="H18" t="n">
-        <v>2.787715435028076</v>
+        <v>0.9079365730285645</v>
       </c>
       <c r="I18" t="n">
-        <v>1.350253224372864</v>
+        <v>0.650530993938446</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_8</t>
+          <t>model_5_8_10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4035878835568083</v>
+        <v>0.7833507425057902</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4961039369207769</v>
+        <v>0.731592204387874</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.429520516413984</v>
+        <v>0.4388556006778394</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6456683846688696</v>
+        <v>0.6086184449836627</v>
       </c>
       <c r="F19" t="n">
-        <v>0.660052478313446</v>
+        <v>0.2397668659687042</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2490864098072052</v>
+        <v>0.4303021132946014</v>
       </c>
       <c r="H19" t="n">
-        <v>3.149250507354736</v>
+        <v>0.8877435326576233</v>
       </c>
       <c r="I19" t="n">
-        <v>1.613868713378906</v>
+        <v>0.645568311214447</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_7</t>
+          <t>model_5_8_9</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4069960847277465</v>
+        <v>0.7838845596768413</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5397950684714057</v>
+        <v>0.7262023740038513</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.395577336038601</v>
+        <v>0.4546830417148584</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.6128962471959427</v>
+        <v>0.6129886454819</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6562805771827698</v>
+        <v>0.2391761094331741</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2274889349937439</v>
+        <v>0.4389429092407227</v>
       </c>
       <c r="H20" t="n">
-        <v>3.105252027511597</v>
+        <v>0.8627041578292847</v>
       </c>
       <c r="I20" t="n">
-        <v>1.581730008125305</v>
+        <v>0.6383597850799561</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_6</t>
+          <t>model_5_8_3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4072702959807558</v>
+        <v>0.7851205578612916</v>
       </c>
       <c r="C21" t="n">
-        <v>0.57579184974194</v>
+        <v>0.6815617222200214</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.377326178898866</v>
+        <v>0.5622346762865544</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5919388072218887</v>
+        <v>0.6385619398891964</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6559771299362183</v>
+        <v>0.2378082275390625</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2096949815750122</v>
+        <v>0.5105092525482178</v>
       </c>
       <c r="H21" t="n">
-        <v>3.081593990325928</v>
+        <v>0.6925549507141113</v>
       </c>
       <c r="I21" t="n">
-        <v>1.561177253723145</v>
+        <v>0.5961776971817017</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_5</t>
+          <t>model_5_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4107960575560551</v>
+        <v>0.7863636937177041</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7873022805555248</v>
+        <v>0.6839210510187617</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.267193669243603</v>
+        <v>0.5564299505243746</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4669912383793091</v>
+        <v>0.6371557656618937</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6520751714706421</v>
+        <v>0.2364324331283569</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1051409468054771</v>
+        <v>0.506726861000061</v>
       </c>
       <c r="H22" t="n">
-        <v>2.938835382461548</v>
+        <v>0.7017382383346558</v>
       </c>
       <c r="I22" t="n">
-        <v>1.438644289970398</v>
+        <v>0.5984970927238464</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_4</t>
+          <t>model_5_8_5</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4223502176816818</v>
+        <v>0.7876578414763966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8775532392878818</v>
+        <v>0.695114888927473</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.209990885574839</v>
+        <v>0.5485534367625118</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4073267024767473</v>
+        <v>0.6393608187656739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6392881274223328</v>
+        <v>0.2350002229213715</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06052799895405769</v>
+        <v>0.4887812435626984</v>
       </c>
       <c r="H23" t="n">
-        <v>2.864686727523804</v>
+        <v>0.7141990661621094</v>
       </c>
       <c r="I23" t="n">
-        <v>1.380132555961609</v>
+        <v>0.5948599576950073</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_0</t>
+          <t>model_5_8_8</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.443727652012583</v>
+        <v>0.7880780574699989</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9849609727014841</v>
+        <v>0.7067481519802066</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.7698316431942702</v>
+        <v>0.5172043494888989</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1048840055756437</v>
+        <v>0.6311968854051007</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6156296133995056</v>
+        <v>0.2345351427793503</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007434106431901455</v>
+        <v>0.4701312780380249</v>
       </c>
       <c r="H24" t="n">
-        <v>2.294132947921753</v>
+        <v>0.7637940049171448</v>
       </c>
       <c r="I24" t="n">
-        <v>1.083534121513367</v>
+        <v>0.6083260178565979</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_10</t>
+          <t>model_5_8_7</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4645002690369249</v>
+        <v>0.7884186630572372</v>
       </c>
       <c r="C25" t="n">
-        <v>0.461694166721326</v>
+        <v>0.7017711879389846</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.468249299218547</v>
+        <v>0.5297793737653704</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6789422142289874</v>
+        <v>0.6343118581732018</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5926404595375061</v>
+        <v>0.2341581881046295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2660958468914032</v>
+        <v>0.4781101644039154</v>
       </c>
       <c r="H25" t="n">
-        <v>3.19945240020752</v>
+        <v>0.7439000606536865</v>
       </c>
       <c r="I25" t="n">
-        <v>1.646499752998352</v>
+        <v>0.6031880378723145</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_11</t>
+          <t>model_5_8_6</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.466120708588501</v>
+        <v>0.7890088516354561</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4842811625779669</v>
+        <v>0.6979147670129375</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.476284944127089</v>
+        <v>0.5430661595602401</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.6779132943861377</v>
+        <v>0.6383246692422815</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5908470749855042</v>
+        <v>0.2335050255060196</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2549306154251099</v>
+        <v>0.4842926561832428</v>
       </c>
       <c r="H26" t="n">
-        <v>3.209868431091309</v>
+        <v>0.7228800654411316</v>
       </c>
       <c r="I26" t="n">
-        <v>1.645490527153015</v>
+        <v>0.5965690612792969</v>
       </c>
     </row>
   </sheetData>
